--- a/src/main/resources/jxls-templates/routineBloodTestSheet.xlsx
+++ b/src/main/resources/jxls-templates/routineBloodTestSheet.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -395,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0">
+    <comment ref="E46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="0">
+    <comment ref="I46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +435,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-${item.age}</t>
+${item.age}
+</t>
         </r>
       </text>
     </comment>
@@ -1162,10 +1163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1228,6 +1229,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1236,6 +1244,52 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,23 +1311,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1282,14 +1321,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1303,11 +1335,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1326,48 +1357,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1412,7 +1413,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,61 +1539,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,103 +1587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,17 +1610,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1648,6 +1658,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1662,197 +1707,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3111,8 +3112,8 @@
   <sheetPr/>
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4001,18 +4002,18 @@
       <c r="C46" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="13"/>
+      <c r="E46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="4"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="12"/>
+      <c r="I46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="4"/>
       <c r="J46" s="12" t="s">
         <v>40</v>
       </c>
